--- a/experiments/2022_car_sampling_pnec/results/time_unit_digits_results.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/time_unit_digits_results.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10708"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richer/Documents/PhD/Projects/HealthPsychology/CARWatch/Code/carwatch_analysis/experiments/2022_car_sampling_pnec/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276882ED-2A7A-B548-8AF9-E0281F38671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Awakening_Time_Unit_Digits" sheetId="1" r:id="rId1"/>
-    <sheet name="Sampling_Time_Unit_Digits" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>condition</t>
   </si>
@@ -47,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,11 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -114,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,20 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +436,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -534,8 +474,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,8 +510,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -608,8 +548,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -644,8 +584,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -682,8 +622,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -726,124 +666,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/experiments/2022_car_sampling_pnec/results/time_unit_digits_results.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/time_unit_digits_results.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Awakening_Time_Unit_Digits" sheetId="1" r:id="rId1"/>
+    <sheet name="Sampling_Time_Unit_Digits" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>condition</t>
   </si>
   <si>
-    <t>log_type</t>
+    <t>reporting_type</t>
   </si>
   <si>
     <t>Known Alarm</t>
@@ -666,4 +667,122 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiments/2022_car_sampling_pnec/results/time_unit_digits_results.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/time_unit_digits_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>condition</t>
   </si>
@@ -32,10 +32,10 @@
     <t>Unknown Alarm</t>
   </si>
   <si>
-    <t>Selfreport</t>
+    <t>AW &amp; ST: App</t>
   </si>
   <si>
-    <t>App</t>
+    <t>AW &amp; ST: Selfreport</t>
   </si>
 </sst>
 </file>
@@ -445,31 +445,31 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -481,31 +481,31 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -519,34 +519,34 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
         <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>33</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -555,34 +555,34 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>17</v>
       </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -629,34 +629,34 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>17</v>
       </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
       <c r="I7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -671,118 +671,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
       <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
       <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
       <c r="G1" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
       <c r="J3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <v>8</v>
       </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>